--- a/Question_Set2/Role-specific skills/US Criminal Law.xlsx
+++ b/Question_Set2/Role-specific skills/US Criminal Law.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working as a criminal defense attorney that represents a client charged with theft. The client took a dozen t-shirts that they thought were free. They explain that there was a sign for “Synthetic Free T-Shirts” but the sign was partially blocked so they only saw “...Free T-Shirts”. Their mindset was a bit cloudy on the day of the incident, as they took antidepressants that day.What plea should your client take in this situation?', 'ques_type': 2, 'options': ['They should plead not guilty, as they only took the property under a genuine mistake of fact.', 'They should plead not guilty, as they were legally insane from their antidepressants.', 'They should plead guilty, as they permanently deprived someone of their property.', 'They should plead guilty, as theft does not require a certain mens rea.'], 'score': 'They should plead not guilty, as they only took the property under a genuine mistake of fact.'}, {'title': 'A client comes into your criminal defense firm and appears severely distraught. The client rents out his mountain cabin for tourists. Yesterday, their security system malfunctioned and accidentally locked a couple in their cabin for 36 hours. The client asks you if they will likely be charged with false imprisonment.What is the proper analysis of the situation to provide to the client?', 'ques_type': 2, 'options': ['Because the couple were locked in his cabin for more than 24 hours, this will likely constitute false imprisonment.', 'Because the security system operated on their behalf, the client is likely to be charged with false imprisonment.', 'Because the client did not intentionally or knowingly lock the couple in the cabin, they are unlikely to be charged with  false imprisonment.', 'Because the client was not present at the cabin, they are unlikely to be charged with false imprisonment.'], 'score': 'Because the client did not intentionally or knowingly lock the couple in the cabin, they are unlikely to be charged with  false imprisonment.'}, {'title': 'You work as a paralegal at a criminal defense firm representing a new client. The client set their neighbor’s house on fire. At the time of the incident, the client was intoxicated and launching fireworks in their backyard to celebrate a birthday. The client tells you that they had no intention of setting anything ablaze. Can the client be charged with arson even though they didn’t intend to light the neighbor’s house on fire?', 'ques_type': 2, 'options': ['No, arson can only be proved with a specific intent to start a fire.', 'Yes, arson can be proved even if the fire was not intentionally started.', 'Yes, lighting a firework constitutes the start of arson.', 'No, arson depends on using a nefarious form of fire starting, such as pouring gasoline on the house.'], 'score': 'Yes, arson can be proved even if the fire was not intentionally started.'}, {'title': 'You are working as an attorney for a criminal defense firm. The state has accused your client of defrauding the government. You notice during the trial that the state has a copy of security footage from the period in question. The state didn’t turn over this footage during discovery. This footage may help your client’s defense.What should you do to best help your client in this situation?', 'ques_type': 2, 'options': ['Prepare to object to the security camera footage on the basis of hearsay.', 'Notify the court that the footage may not come into evidence because it was not disclosed.', 'Ask your client to recall, to the best of their ability, what could be on the security footage.', 'Ask to see the footage and raise the possibility of a Brady violation to the court.'], 'score': 'Ask to see the footage and raise the possibility of a Brady violation to the court.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working as a criminal defense attorney that represents a client charged with theft. The client took a dozen t-shirts that they thought were free. They explain that there was a sign for \u201cSynthetic Free T-Shirts\u201d but the sign was partially blocked so they only saw \u201c...Free T-Shirts\u201d. Their mindset was a bit cloudy on the day of the incident, as they took antidepressants that day.What plea should your client take in this situation?",
+        "ques_type": 2,
+        "options": [
+            "They should plead not guilty, as they only took the property under a genuine mistake of fact.",
+            "They should plead not guilty, as they were legally insane from their antidepressants.",
+            "They should plead guilty, as they permanently deprived someone of their property.",
+            "They should plead guilty, as theft does not require a certain mens rea."
+        ],
+        "score": "They should plead not guilty, as they only took the property under a genuine mistake of fact."
+    },
+    {
+        "title": "A client comes into your criminal defense firm and appears severely distraught. The client rents out his mountain cabin for tourists. Yesterday, their security system malfunctioned and accidentally locked a couple in their cabin for 36 hours. The client asks you if they will likely be charged with false imprisonment.What is the proper analysis of the situation to provide to the client?",
+        "ques_type": 2,
+        "options": [
+            "Because the couple were locked in his cabin for more than 24 hours, this will likely constitute false imprisonment.",
+            "Because the security system operated on their behalf, the client is likely to be charged with false imprisonment.",
+            "Because the client did not intentionally or knowingly lock the couple in the cabin, they are unlikely to be charged with  false imprisonment.",
+            "Because the client was not present at the cabin, they are unlikely to be charged with false imprisonment."
+        ],
+        "score": "Because the client did not intentionally or knowingly lock the couple in the cabin, they are unlikely to be charged with  false imprisonment."
+    },
+    {
+        "title": "You work as a paralegal at a criminal defense firm representing a new client. The client set their neighbor\u2019s house on fire. At the time of the incident, the client was intoxicated and launching fireworks in their backyard to celebrate a birthday. The client tells you that they had no intention of setting anything ablaze. Can the client be charged with arson even though they didn\u2019t intend to light the neighbor\u2019s house on fire?",
+        "ques_type": 2,
+        "options": [
+            "No, arson can only be proved with a specific intent to start a fire.",
+            "Yes, arson can be proved even if the fire was not intentionally started.",
+            "Yes, lighting a firework constitutes the start of arson.",
+            "No, arson depends on using a nefarious form of fire starting, such as pouring gasoline on the house."
+        ],
+        "score": "Yes, arson can be proved even if the fire was not intentionally started."
+    },
+    {
+        "title": "You are working as an attorney for a criminal defense firm. The state has accused your client of defrauding the government. You notice during the trial that the state has a copy of security footage from the period in question. The state didn\u2019t turn over this footage during discovery. This footage may help your client\u2019s defense.What should you do to best help your client in this situation?",
+        "ques_type": 2,
+        "options": [
+            "Prepare to object to the security camera footage on the basis of hearsay.",
+            "Notify the court that the footage may not come into evidence because it was not disclosed.",
+            "Ask your client to recall, to the best of their ability, what could be on the security footage.",
+            "Ask to see the footage and raise the possibility of a Brady violation to the court."
+        ],
+        "score": "Ask to see the footage and raise the possibility of a Brady violation to the court."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
